--- a/org.imt.tdl.sbfl.evaluation/evaluationData/Arduino.Overall.xlsx
+++ b/org.imt.tdl.sbfl.evaluation/evaluationData/Arduino.Overall.xlsx
@@ -8,27 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\labtop\GitHub\xtdl_FaultLocalization\org.imt.tdl.sbfl.evaluation\evaluationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E6B688-047F-4465-B215-69711673EE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F40766-002D-4944-950C-D3E5E4B16997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveWait" sheetId="1" r:id="rId1"/>
     <sheet name="BlinkingLED" sheetId="2" r:id="rId2"/>
     <sheet name="SensorAlarm" sheetId="3" r:id="rId3"/>
     <sheet name="ServorIrButton" sheetId="4" r:id="rId4"/>
+    <sheet name="Average" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="34">
   <si>
     <t>SBFL Technique</t>
   </si>
@@ -116,11 +126,29 @@
   <si>
     <t>barinel</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>ActiveWait</t>
+  </si>
+  <si>
+    <t>BlinkingLED</t>
+  </si>
+  <si>
+    <t>SensorAlarm</t>
+  </si>
+  <si>
+    <t>ServoIrButton</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +189,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -170,16 +216,169 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +662,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1118,7 +1317,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1773,7 +1972,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1823,10 +2022,10 @@
       <c r="D2">
         <v>0.123</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>0.188</v>
       </c>
       <c r="G2">
@@ -1855,7 +2054,7 @@
       <c r="D3">
         <v>0.124</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5">
         <v>0.16700000000000001</v>
       </c>
       <c r="F3">
@@ -1887,7 +2086,7 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>0.30599999999999999</v>
       </c>
       <c r="F4">
@@ -1919,10 +2118,10 @@
       <c r="D5">
         <v>0.122</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0.185</v>
       </c>
       <c r="G5">
@@ -1951,10 +2150,10 @@
       <c r="D6">
         <v>0.124</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>0.222</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>0.217</v>
       </c>
       <c r="G6">
@@ -1983,10 +2182,10 @@
       <c r="D7">
         <v>0.122</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>0.188</v>
       </c>
       <c r="G7">
@@ -2015,10 +2214,10 @@
       <c r="D8">
         <v>0.122</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>0.188</v>
       </c>
       <c r="G8">
@@ -2047,10 +2246,10 @@
       <c r="D9">
         <v>0.122</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>0.185</v>
       </c>
       <c r="G9">
@@ -2079,10 +2278,10 @@
       <c r="D10">
         <v>0.122</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>0.185</v>
       </c>
       <c r="G10">
@@ -2111,7 +2310,7 @@
       <c r="D11">
         <v>0.124</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="5">
         <v>0.16700000000000001</v>
       </c>
       <c r="F11">
@@ -2143,10 +2342,10 @@
       <c r="D12">
         <v>0.122</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>0.185</v>
       </c>
       <c r="G12">
@@ -2175,10 +2374,10 @@
       <c r="D13">
         <v>0.14099999999999999</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="5">
         <v>0.222</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>0.23300000000000001</v>
       </c>
       <c r="G13">
@@ -2207,7 +2406,7 @@
       <c r="D14">
         <v>0.33300000000000002</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>0.63900000000000001</v>
       </c>
       <c r="F14">
@@ -2239,10 +2438,10 @@
       <c r="D15">
         <v>0.123</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>0.188</v>
       </c>
       <c r="G15">
@@ -2271,7 +2470,7 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="5">
         <v>0.25</v>
       </c>
       <c r="F16">
@@ -2303,7 +2502,7 @@
       <c r="D17">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="5">
         <v>0.16700000000000001</v>
       </c>
       <c r="F17">
@@ -2335,7 +2534,7 @@
       <c r="D18">
         <v>0.126</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="5">
         <v>0.16700000000000001</v>
       </c>
       <c r="F18">
@@ -2367,7 +2566,7 @@
       <c r="D19">
         <v>0.13100000000000001</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>0.63900000000000001</v>
       </c>
       <c r="F19">
@@ -2399,7 +2598,7 @@
       <c r="D20">
         <v>0.17</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="5">
         <v>0.222</v>
       </c>
       <c r="F20">
@@ -2427,8 +2626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FF827E-9907-4C4D-8A39-0652C77CD407}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2478,10 +2677,10 @@
       <c r="D2">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>0.20200000000000001</v>
       </c>
       <c r="G2">
@@ -2510,7 +2709,7 @@
       <c r="D3">
         <v>0.12</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>0.38100000000000001</v>
       </c>
       <c r="F3">
@@ -2542,7 +2741,7 @@
       <c r="D4">
         <v>0.09</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>0.35699999999999998</v>
       </c>
       <c r="F4">
@@ -2574,10 +2773,10 @@
       <c r="D5">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0.19600000000000001</v>
       </c>
       <c r="G5">
@@ -2606,7 +2805,7 @@
       <c r="D6">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="5">
         <v>0.16700000000000001</v>
       </c>
       <c r="F6">
@@ -2638,7 +2837,7 @@
       <c r="D7">
         <v>0.10199999999999999</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <v>0.16700000000000001</v>
       </c>
       <c r="F7">
@@ -2670,7 +2869,7 @@
       <c r="D8">
         <v>0.10199999999999999</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <v>0.16700000000000001</v>
       </c>
       <c r="F8">
@@ -2702,10 +2901,10 @@
       <c r="D9">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>0.19600000000000001</v>
       </c>
       <c r="G9">
@@ -2734,10 +2933,10 @@
       <c r="D10">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>0.20699999999999999</v>
       </c>
       <c r="G10">
@@ -2766,7 +2965,7 @@
       <c r="D11">
         <v>0.108</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>0.38100000000000001</v>
       </c>
       <c r="F11">
@@ -2798,10 +2997,10 @@
       <c r="D12">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>0.19600000000000001</v>
       </c>
       <c r="G12">
@@ -2830,7 +3029,7 @@
       <c r="D13">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="5">
         <v>0.28599999999999998</v>
       </c>
       <c r="F13">
@@ -2862,7 +3061,7 @@
       <c r="D14">
         <v>0.26600000000000001</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>0.45200000000000001</v>
       </c>
       <c r="F14">
@@ -2894,10 +3093,10 @@
       <c r="D15">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="5">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>0.2</v>
       </c>
       <c r="G15">
@@ -2926,7 +3125,7 @@
       <c r="D16">
         <v>0.08</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="5">
         <v>0.31</v>
       </c>
       <c r="F16">
@@ -2958,7 +3157,7 @@
       <c r="D17">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>0.5</v>
       </c>
       <c r="F17">
@@ -2990,7 +3189,7 @@
       <c r="D18">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>0.5</v>
       </c>
       <c r="F18">
@@ -3022,7 +3221,7 @@
       <c r="D19">
         <v>0.106</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>0.61899999999999999</v>
       </c>
       <c r="F19">
@@ -3054,7 +3253,7 @@
       <c r="D20">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>0.47599999999999998</v>
       </c>
       <c r="F20">
@@ -3076,4 +3275,461 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEA3FA1-9878-4087-8D56-20FC72644890}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="11" style="18" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="6"/>
+      <c r="B1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.188</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="F3" s="25">
+        <f>AVERAGE(B3:E3)</f>
+        <v>0.25424999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="18">
+        <v>0.373</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0.245</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" ref="F4:F21" si="0">AVERAGE(B4:E4)</f>
+        <v>0.32799999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="18">
+        <v>0.373</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="0"/>
+        <v>0.36749999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.185</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F6" s="24">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.217</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="0"/>
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="15">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.188</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="F8" s="27">
+        <f t="shared" si="0"/>
+        <v>0.26049999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.188</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="F9" s="27">
+        <f t="shared" si="0"/>
+        <v>0.26049999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.185</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F10" s="24">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.185</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F11" s="26">
+        <f t="shared" si="0"/>
+        <v>0.25475000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="18">
+        <v>0.373</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0.245</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>0.32750000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="14">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.185</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="18">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
+        <v>0.37575000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="18">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0.435</v>
+      </c>
+      <c r="F15" s="17">
+        <f t="shared" si="0"/>
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.188</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="25">
+        <f t="shared" si="0"/>
+        <v>0.25374999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="19">
+        <v>0.35</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="0"/>
+        <v>0.33724999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="18">
+        <v>0.373</v>
+      </c>
+      <c r="C18" s="19">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="F18" s="17">
+        <f t="shared" si="0"/>
+        <v>0.35175000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="18">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0.32</v>
+      </c>
+      <c r="F19" s="17">
+        <f t="shared" si="0"/>
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="18">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="C20" s="18">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="F20" s="17">
+        <f t="shared" si="0"/>
+        <v>0.59550000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="20">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="C21" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="E21" s="22">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="F21" s="23">
+        <f t="shared" si="0"/>
+        <v>0.39124999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/org.imt.tdl.sbfl.evaluation/evaluationData/Arduino.Overall.xlsx
+++ b/org.imt.tdl.sbfl.evaluation/evaluationData/Arduino.Overall.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\labtop\GitHub\xtdl_FaultLocalization\org.imt.tdl.sbfl.evaluation\evaluationData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\labtop\gemoc_studio\workspaces\xTDL_FaultLocalization\runtime-coverage\XArduino-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F40766-002D-4944-950C-D3E5E4B16997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0B62F7-0DEE-4B40-953D-624A99098903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ActiveWait" sheetId="1" r:id="rId1"/>
-    <sheet name="BlinkingLED" sheetId="2" r:id="rId2"/>
+    <sheet name="Servo9g" sheetId="6" r:id="rId1"/>
+    <sheet name="ActiveWait" sheetId="1" r:id="rId2"/>
     <sheet name="SensorAlarm" sheetId="3" r:id="rId3"/>
     <sheet name="ServorIrButton" sheetId="4" r:id="rId4"/>
-    <sheet name="Average" sheetId="5" r:id="rId5"/>
+    <sheet name="TriggerFan" sheetId="8" r:id="rId5"/>
+    <sheet name="TriggerAll" sheetId="7" r:id="rId6"/>
+    <sheet name="Average" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="36">
   <si>
     <t>SBFL Technique</t>
   </si>
@@ -133,13 +135,19 @@
     <t>ActiveWait</t>
   </si>
   <si>
-    <t>BlinkingLED</t>
-  </si>
-  <si>
     <t>SensorAlarm</t>
   </si>
   <si>
     <t>ServoIrButton</t>
+  </si>
+  <si>
+    <t>Servo9g</t>
+  </si>
+  <si>
+    <t>TriggerFan</t>
+  </si>
+  <si>
+    <t>TriggerAll</t>
   </si>
 </sst>
 </file>
@@ -147,7 +155,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -208,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -284,16 +292,9 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -304,7 +305,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -314,69 +317,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -658,11 +644,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2BE9CB4-AA1B-4568-A93A-722DDDB5117C}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -704,31 +690,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>7.6999999999999999E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C2">
-        <v>0.108</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D2">
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.308</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.27700000000000002</v>
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="F2">
+        <v>0.318</v>
       </c>
       <c r="G2">
-        <v>0.111</v>
+        <v>0.129</v>
       </c>
       <c r="H2">
-        <v>0.53800000000000003</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="I2">
-        <v>0.44600000000000001</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="J2">
-        <v>0.18099999999999999</v>
+        <v>0.25700000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -736,31 +722,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>7.6999999999999999E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C3">
-        <v>0.108</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D3">
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0.5</v>
       </c>
       <c r="F3">
-        <v>0.373</v>
+        <v>0.379</v>
       </c>
       <c r="G3">
-        <v>0.17499999999999999</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="H3">
-        <v>0.76900000000000002</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I3">
-        <v>0.63800000000000001</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="J3">
-        <v>0.32400000000000001</v>
+        <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -768,31 +754,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>7.6999999999999999E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C4">
-        <v>7.6999999999999999E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.308</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="F4">
-        <v>0.373</v>
+        <v>0.439</v>
       </c>
       <c r="G4">
-        <v>6.9000000000000006E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="H4">
-        <v>0.53800000000000003</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="I4">
-        <v>0.66900000000000004</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="J4">
-        <v>0.13800000000000001</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -800,31 +786,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>7.6999999999999999E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C5">
-        <v>0.108</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D5">
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.308</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.27700000000000002</v>
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="F5">
+        <v>0.318</v>
       </c>
       <c r="G5">
-        <v>0.111</v>
+        <v>0.129</v>
       </c>
       <c r="H5">
-        <v>0.53800000000000003</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="I5">
-        <v>0.44600000000000001</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="J5">
-        <v>0.18099999999999999</v>
+        <v>0.25700000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -832,31 +818,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>7.6999999999999999E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C6">
-        <v>0.108</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D6">
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.308</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.30399999999999999</v>
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>0.379</v>
       </c>
       <c r="G6">
-        <v>0.113</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="H6">
-        <v>0.53800000000000003</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I6">
-        <v>0.5</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="J6">
-        <v>0.17599999999999999</v>
+        <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -864,31 +850,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>7.6999999999999999E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C7">
-        <v>0.123</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D7">
-        <v>9.9000000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.308</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.29199999999999998</v>
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="F7">
+        <v>0.318</v>
       </c>
       <c r="G7">
-        <v>0.14599999999999999</v>
+        <v>0.129</v>
       </c>
       <c r="H7">
-        <v>0.53800000000000003</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="I7">
-        <v>0.46100000000000002</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="J7">
-        <v>0.21199999999999999</v>
+        <v>0.25700000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -896,31 +882,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>7.6999999999999999E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C8">
-        <v>0.123</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D8">
-        <v>9.9000000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.308</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.29199999999999998</v>
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="F8">
+        <v>0.318</v>
       </c>
       <c r="G8">
-        <v>0.14599999999999999</v>
+        <v>0.129</v>
       </c>
       <c r="H8">
-        <v>0.53800000000000003</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="I8">
-        <v>0.46100000000000002</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="J8">
-        <v>0.21199999999999999</v>
+        <v>0.25700000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -928,31 +914,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>7.6999999999999999E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C9">
-        <v>0.108</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D9">
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.308</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.27700000000000002</v>
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="F9">
+        <v>0.318</v>
       </c>
       <c r="G9">
-        <v>0.111</v>
+        <v>0.129</v>
       </c>
       <c r="H9">
-        <v>0.53800000000000003</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="I9">
-        <v>0.44600000000000001</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="J9">
-        <v>0.18099999999999999</v>
+        <v>0.25700000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -960,31 +946,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>7.6999999999999999E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C10">
-        <v>0.108</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D10">
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.308</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.27700000000000002</v>
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="F10">
+        <v>0.318</v>
       </c>
       <c r="G10">
-        <v>0.111</v>
+        <v>0.129</v>
       </c>
       <c r="H10">
-        <v>0.53800000000000003</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="I10">
-        <v>0.44600000000000001</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="J10">
-        <v>0.18099999999999999</v>
+        <v>0.25700000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -992,31 +978,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>7.6999999999999999E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C11">
-        <v>0.108</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D11">
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0.5</v>
       </c>
       <c r="F11">
-        <v>0.373</v>
+        <v>0.379</v>
       </c>
       <c r="G11">
-        <v>0.17499999999999999</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="H11">
-        <v>0.76900000000000002</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I11">
-        <v>0.63800000000000001</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="J11">
-        <v>0.32400000000000001</v>
+        <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -1024,31 +1010,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>7.6999999999999999E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C12">
-        <v>0.108</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D12">
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.308</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.27700000000000002</v>
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="F12">
+        <v>0.318</v>
       </c>
       <c r="G12">
-        <v>0.111</v>
+        <v>0.129</v>
       </c>
       <c r="H12">
-        <v>0.53800000000000003</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="I12">
-        <v>0.44600000000000001</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="J12">
-        <v>0.18099999999999999</v>
+        <v>0.25700000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -1056,31 +1042,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.23100000000000001</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="C13">
-        <v>0.27700000000000002</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D13">
-        <v>0.20699999999999999</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="E13">
-        <v>0.38500000000000001</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="F13">
-        <v>0.46500000000000002</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="G13">
-        <v>0.154</v>
+        <v>0.129</v>
       </c>
       <c r="H13">
-        <v>0.53800000000000003</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I13">
-        <v>0.65300000000000002</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="J13">
-        <v>0.11600000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1088,31 +1074,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.23100000000000001</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="C14">
-        <v>0.34599999999999997</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D14">
-        <v>0.28799999999999998</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="E14">
-        <v>0.38500000000000001</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="F14">
-        <v>0.53100000000000003</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="G14">
-        <v>0.23</v>
+        <v>0.129</v>
       </c>
       <c r="H14">
-        <v>0.53800000000000003</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I14">
-        <v>0.71499999999999997</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="J14">
-        <v>0.182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1120,31 +1106,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>7.6999999999999999E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C15">
-        <v>0.108</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D15">
-        <v>6.2E-2</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.308</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.27700000000000002</v>
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="F15">
+        <v>0.318</v>
       </c>
       <c r="G15">
-        <v>0.111</v>
+        <v>0.129</v>
       </c>
       <c r="H15">
-        <v>0.53800000000000003</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="I15">
-        <v>0.44600000000000001</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="J15">
-        <v>0.18099999999999999</v>
+        <v>0.25700000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1152,31 +1138,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>7.6999999999999999E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C16">
-        <v>7.6999999999999999E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.308</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.35</v>
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="F16">
+        <v>0.439</v>
       </c>
       <c r="G16">
-        <v>0.05</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="H16">
-        <v>0.53800000000000003</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="I16">
-        <v>0.623</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="J16">
-        <v>0.1</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1184,31 +1170,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>7.6999999999999999E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C17">
-        <v>9.1999999999999998E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D17">
-        <v>4.5999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0.5</v>
       </c>
       <c r="F17">
-        <v>0.373</v>
+        <v>0.379</v>
       </c>
       <c r="G17">
-        <v>0.17499999999999999</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="H17">
-        <v>0.92300000000000004</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I17">
-        <v>0.65400000000000003</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="J17">
-        <v>0.33400000000000002</v>
+        <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -1216,31 +1202,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>7.6999999999999999E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C18">
-        <v>0.13100000000000001</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D18">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0.5</v>
       </c>
       <c r="F18">
-        <v>0.39200000000000002</v>
+        <v>0.379</v>
       </c>
       <c r="G18">
-        <v>0.19700000000000001</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="H18">
-        <v>0.92300000000000004</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I18">
-        <v>0.65400000000000003</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="J18">
-        <v>0.33400000000000002</v>
+        <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -1248,28 +1234,28 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.23100000000000001</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="C19">
-        <v>0.20799999999999999</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="D19">
-        <v>0.12</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="E19">
-        <v>0.57699999999999996</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="F19">
-        <v>0.56499999999999995</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="G19">
-        <v>0.06</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="H19">
-        <v>0.92300000000000004</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I19">
-        <v>0.92300000000000004</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1280,31 +1266,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.23100000000000001</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C20">
-        <v>0.27700000000000002</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D20">
-        <v>0.17599999999999999</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0.5</v>
       </c>
       <c r="F20">
-        <v>0.47299999999999998</v>
+        <v>0.379</v>
       </c>
       <c r="G20">
-        <v>0.23</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="H20">
-        <v>0.76900000000000002</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I20">
-        <v>0.66900000000000004</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="J20">
-        <v>0.28999999999999998</v>
+        <v>0.34300000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1313,11 +1299,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2620A8-1257-4318-9E91-FD3E1F91E595}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1359,31 +1345,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C2">
-        <v>0.16300000000000001</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.35</v>
+        <v>0.214</v>
+      </c>
+      <c r="F2">
+        <v>0.27800000000000002</v>
       </c>
       <c r="G2">
-        <v>0.217</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="I2">
-        <v>0.53800000000000003</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="J2">
-        <v>0.26100000000000001</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -1391,31 +1377,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>6.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C3">
-        <v>6.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.41899999999999998</v>
+        <v>0.214</v>
+      </c>
+      <c r="F3">
+        <v>0.35199999999999998</v>
       </c>
       <c r="G3">
-        <v>0.16200000000000001</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="H3">
-        <v>0.93799999999999994</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="I3">
-        <v>0.77500000000000002</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="J3">
-        <v>0.32500000000000001</v>
+        <v>0.27800000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -1423,31 +1409,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>6.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C4">
-        <v>0.16300000000000001</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.4</v>
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.42099999999999999</v>
       </c>
       <c r="G4">
-        <v>0.17699999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="H4">
-        <v>0.625</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="I4">
-        <v>0.63800000000000001</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="J4">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -1455,31 +1441,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>6.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C5">
-        <v>0.16300000000000001</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.35</v>
+        <v>0.214</v>
+      </c>
+      <c r="F5">
+        <v>0.27800000000000002</v>
       </c>
       <c r="G5">
-        <v>0.217</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="I5">
-        <v>0.53800000000000003</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="J5">
-        <v>0.26100000000000001</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -1487,31 +1473,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>6.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C6">
-        <v>0.16300000000000001</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.40600000000000003</v>
+        <v>0.214</v>
+      </c>
+      <c r="F6">
+        <v>0.29599999999999999</v>
       </c>
       <c r="G6">
-        <v>0.17599999999999999</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="H6">
-        <v>0.625</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="I6">
-        <v>0.65</v>
+        <v>0.52</v>
       </c>
       <c r="J6">
-        <v>0.161</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -1519,31 +1505,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>6.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C7">
-        <v>0.16300000000000001</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.35</v>
+        <v>0.214</v>
+      </c>
+      <c r="F7">
+        <v>0.27800000000000002</v>
       </c>
       <c r="G7">
-        <v>0.217</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="H7">
-        <v>0.5</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="I7">
-        <v>0.53800000000000003</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="J7">
-        <v>0.26100000000000001</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -1551,31 +1537,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>6.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C8">
-        <v>0.16300000000000001</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.35</v>
+        <v>0.214</v>
+      </c>
+      <c r="F8">
+        <v>0.27800000000000002</v>
       </c>
       <c r="G8">
-        <v>0.217</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="H8">
-        <v>0.5</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="I8">
-        <v>0.53800000000000003</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="J8">
-        <v>0.26100000000000001</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -1583,31 +1569,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>6.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C9">
-        <v>0.16300000000000001</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.35</v>
+        <v>0.214</v>
+      </c>
+      <c r="F9">
+        <v>0.27800000000000002</v>
       </c>
       <c r="G9">
-        <v>0.217</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="H9">
-        <v>0.5</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="I9">
-        <v>0.53800000000000003</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="J9">
-        <v>0.26100000000000001</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1615,31 +1601,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C10">
-        <v>0.16300000000000001</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.35</v>
+        <v>0.214</v>
+      </c>
+      <c r="F10">
+        <v>0.27800000000000002</v>
       </c>
       <c r="G10">
-        <v>0.217</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="H10">
-        <v>0.5</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="I10">
-        <v>0.53800000000000003</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="J10">
-        <v>0.26100000000000001</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1647,31 +1633,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>6.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C11">
-        <v>6.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.41899999999999998</v>
+        <v>0.214</v>
+      </c>
+      <c r="F11">
+        <v>0.35199999999999998</v>
       </c>
       <c r="G11">
-        <v>0.16200000000000001</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="H11">
-        <v>0.93799999999999994</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="I11">
-        <v>0.77500000000000002</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="J11">
-        <v>0.32500000000000001</v>
+        <v>0.27800000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -1679,31 +1665,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>6.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C12">
-        <v>0.16300000000000001</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.35</v>
+        <v>0.214</v>
+      </c>
+      <c r="F12">
+        <v>0.27800000000000002</v>
       </c>
       <c r="G12">
-        <v>0.217</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="H12">
-        <v>0.5</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="I12">
-        <v>0.53800000000000003</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="J12">
-        <v>0.26100000000000001</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -1711,31 +1697,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.188</v>
+        <v>0.5</v>
       </c>
       <c r="C13">
-        <v>0.313</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="D13">
-        <v>0.20899999999999999</v>
+        <v>0.217</v>
       </c>
       <c r="E13">
-        <v>0.40600000000000003</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="F13">
-        <v>0.53100000000000003</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="G13">
-        <v>0.18</v>
+        <v>0.154</v>
       </c>
       <c r="H13">
-        <v>0.625</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="I13">
-        <v>0.75</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="J13">
-        <v>0.153</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1743,31 +1729,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.188</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="C14">
-        <v>0.313</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="D14">
-        <v>0.20899999999999999</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="E14">
-        <v>0.40600000000000003</v>
+        <v>0.75</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G14">
-        <v>0.151</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="H14">
-        <v>0.625</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="I14">
-        <v>0.68799999999999994</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="J14">
-        <v>0.125</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1775,31 +1761,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>6.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C15">
-        <v>0.16300000000000001</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.35</v>
+        <v>0.214</v>
+      </c>
+      <c r="F15">
+        <v>0.27800000000000002</v>
       </c>
       <c r="G15">
-        <v>0.217</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="H15">
-        <v>0.5</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="I15">
-        <v>0.53800000000000003</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="J15">
-        <v>0.26100000000000001</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1807,31 +1793,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>6.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C16">
-        <v>0.16300000000000001</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D16">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.4</v>
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.38500000000000001</v>
       </c>
       <c r="G16">
-        <v>0.17699999999999999</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="H16">
-        <v>0.625</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="I16">
-        <v>0.63800000000000001</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="J16">
-        <v>0.16</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1839,31 +1825,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>6.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C17">
-        <v>6.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.41899999999999998</v>
+        <v>0.214</v>
+      </c>
+      <c r="F17">
+        <v>0.35699999999999998</v>
       </c>
       <c r="G17">
-        <v>0.16200000000000001</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="H17">
-        <v>0.93799999999999994</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="I17">
-        <v>0.77500000000000002</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="J17">
-        <v>0.32500000000000001</v>
+        <v>0.28599999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -1871,31 +1857,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>6.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C18">
-        <v>6.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0.41899999999999998</v>
+        <v>0.214</v>
+      </c>
+      <c r="F18">
+        <v>0.35699999999999998</v>
       </c>
       <c r="G18">
-        <v>0.16200000000000001</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="H18">
-        <v>0.93799999999999994</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="I18">
-        <v>0.77500000000000002</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="J18">
-        <v>0.32500000000000001</v>
+        <v>0.28599999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -1903,28 +1889,28 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>0.214</v>
+      </c>
+      <c r="C19">
         <v>0.188</v>
       </c>
-      <c r="C19">
-        <v>0.17499999999999999</v>
-      </c>
       <c r="D19">
-        <v>0.114</v>
+        <v>0.126</v>
       </c>
       <c r="E19">
-        <v>0.56299999999999994</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="F19">
-        <v>0.55600000000000005</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="G19">
-        <v>5.7000000000000002E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="H19">
-        <v>0.93799999999999994</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="I19">
-        <v>0.93799999999999994</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1935,31 +1921,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>6.3E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C20">
-        <v>6.3E-2</v>
+        <v>0.183</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.159</v>
       </c>
       <c r="E20">
-        <v>0.5</v>
+        <v>0.214</v>
       </c>
       <c r="F20">
-        <v>0.45</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="G20">
-        <v>0.1</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="H20">
-        <v>0.93799999999999994</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="I20">
-        <v>0.83799999999999997</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="J20">
-        <v>0.2</v>
+        <v>0.27800000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1971,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EEC4F6-F1E7-4C52-8737-695D250B938D}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2014,31 +2000,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5.6000000000000001E-2</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
-        <v>9.8000000000000004E-2</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="D2">
-        <v>0.123</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.188</v>
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.4</v>
+      </c>
+      <c r="F2">
+        <v>0.33900000000000002</v>
       </c>
       <c r="G2">
-        <v>0.153</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="H2">
-        <v>0.27800000000000002</v>
+        <v>0.6</v>
       </c>
       <c r="I2">
-        <v>0.27800000000000002</v>
+        <v>0.54</v>
       </c>
       <c r="J2">
-        <v>0.2</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2046,31 +2032,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>5.6000000000000001E-2</v>
+        <v>0.4</v>
       </c>
       <c r="C3">
-        <v>0.10199999999999999</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="D3">
-        <v>0.124</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.16700000000000001</v>
+        <v>0.191</v>
+      </c>
+      <c r="E3">
+        <v>0.6</v>
       </c>
       <c r="F3">
-        <v>0.245</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="G3">
-        <v>0.189</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="H3">
-        <v>0.27800000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="I3">
-        <v>0.38900000000000001</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="J3">
-        <v>0.30499999999999999</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -2078,31 +2064,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>5.6000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="C4">
-        <v>5.6000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.30599999999999999</v>
+        <v>1E-3</v>
+      </c>
+      <c r="E4">
+        <v>0.32</v>
       </c>
       <c r="F4">
-        <v>0.33400000000000002</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="G4">
-        <v>7.6999999999999999E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="H4">
-        <v>0.55600000000000005</v>
+        <v>0.6</v>
       </c>
       <c r="I4">
-        <v>0.61299999999999999</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="J4">
-        <v>0.153</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -2110,31 +2096,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>5.6000000000000001E-2</v>
+        <v>0.12</v>
       </c>
       <c r="C5">
-        <v>9.5000000000000001E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D5">
-        <v>0.122</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.185</v>
+        <v>6.3E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.32</v>
+      </c>
+      <c r="F5">
+        <v>0.29899999999999999</v>
       </c>
       <c r="G5">
-        <v>0.151</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="H5">
-        <v>0.27800000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="I5">
-        <v>0.27500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="J5">
-        <v>0.19600000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -2142,31 +2128,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>5.6000000000000001E-2</v>
+        <v>0.4</v>
       </c>
       <c r="C6">
-        <v>0.10199999999999999</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="D6">
-        <v>0.124</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.222</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.217</v>
+        <v>0.191</v>
+      </c>
+      <c r="E6">
+        <v>0.6</v>
+      </c>
+      <c r="F6">
+        <v>0.52300000000000002</v>
       </c>
       <c r="G6">
-        <v>0.152</v>
+        <v>0.154</v>
       </c>
       <c r="H6">
-        <v>0.27800000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="I6">
-        <v>0.33300000000000002</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="J6">
-        <v>0.20799999999999999</v>
+        <v>0.17199999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -2174,31 +2160,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>5.6000000000000001E-2</v>
+        <v>0.12</v>
       </c>
       <c r="C7">
-        <v>9.5000000000000001E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D7">
-        <v>0.122</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.188</v>
+        <v>6.3E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.36</v>
+      </c>
+      <c r="F7">
+        <v>0.31900000000000001</v>
       </c>
       <c r="G7">
-        <v>0.152</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="H7">
-        <v>0.27800000000000002</v>
+        <v>0.6</v>
       </c>
       <c r="I7">
-        <v>0.28100000000000003</v>
+        <v>0.54</v>
       </c>
       <c r="J7">
-        <v>0.2</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -2206,31 +2192,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>5.6000000000000001E-2</v>
+        <v>0.12</v>
       </c>
       <c r="C8">
-        <v>9.5000000000000001E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D8">
-        <v>0.122</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.188</v>
+        <v>6.3E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.36</v>
+      </c>
+      <c r="F8">
+        <v>0.31900000000000001</v>
       </c>
       <c r="G8">
-        <v>0.152</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="H8">
-        <v>0.27800000000000002</v>
+        <v>0.6</v>
       </c>
       <c r="I8">
-        <v>0.28100000000000003</v>
+        <v>0.54</v>
       </c>
       <c r="J8">
-        <v>0.2</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -2238,31 +2224,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>5.6000000000000001E-2</v>
+        <v>0.12</v>
       </c>
       <c r="C9">
-        <v>9.5000000000000001E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D9">
-        <v>0.122</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.185</v>
+        <v>6.3E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.32</v>
+      </c>
+      <c r="F9">
+        <v>0.29799999999999999</v>
       </c>
       <c r="G9">
-        <v>0.151</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="H9">
-        <v>0.27800000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="I9">
-        <v>0.27500000000000002</v>
+        <v>0.499</v>
       </c>
       <c r="J9">
-        <v>0.19600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -2270,31 +2256,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>5.6000000000000001E-2</v>
+        <v>0.12</v>
       </c>
       <c r="C10">
-        <v>9.5000000000000001E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D10">
-        <v>0.122</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.185</v>
+        <v>6.3E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.32</v>
+      </c>
+      <c r="F10">
+        <v>0.29799999999999999</v>
       </c>
       <c r="G10">
-        <v>0.151</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="H10">
-        <v>0.27800000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="I10">
-        <v>0.27500000000000002</v>
+        <v>0.499</v>
       </c>
       <c r="J10">
-        <v>0.19600000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -2302,31 +2288,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>5.6000000000000001E-2</v>
+        <v>0.4</v>
       </c>
       <c r="C11">
-        <v>0.10199999999999999</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="D11">
-        <v>0.124</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.16700000000000001</v>
+        <v>0.191</v>
+      </c>
+      <c r="E11">
+        <v>0.6</v>
       </c>
       <c r="F11">
-        <v>0.245</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="G11">
-        <v>0.189</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="H11">
-        <v>0.27800000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="I11">
-        <v>0.38900000000000001</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="J11">
-        <v>0.30499999999999999</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -2334,31 +2320,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>5.6000000000000001E-2</v>
+        <v>0.12</v>
       </c>
       <c r="C12">
-        <v>9.5000000000000001E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D12">
-        <v>0.122</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.185</v>
+        <v>6.3E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.32</v>
+      </c>
+      <c r="F12">
+        <v>0.29899999999999999</v>
       </c>
       <c r="G12">
-        <v>0.151</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="H12">
-        <v>0.27800000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="I12">
-        <v>0.27500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="J12">
-        <v>0.19600000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -2366,31 +2352,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>5.6000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="C13">
-        <v>0.13600000000000001</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D13">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.222</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.23300000000000001</v>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F13">
+        <v>0.29099999999999998</v>
       </c>
       <c r="G13">
-        <v>0.14499999999999999</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="H13">
-        <v>0.27800000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="I13">
-        <v>0.33</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="J13">
-        <v>0.17399999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -2398,31 +2384,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.61099999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="C14">
-        <v>0.48</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="D14">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.63900000000000001</v>
+        <v>9.4E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.24</v>
       </c>
       <c r="F14">
-        <v>0.56999999999999995</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="G14">
-        <v>0.28799999999999998</v>
+        <v>0.129</v>
       </c>
       <c r="H14">
-        <v>0.66700000000000004</v>
+        <v>0.44</v>
       </c>
       <c r="I14">
-        <v>0.66</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="J14">
-        <v>0.251</v>
+        <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -2430,31 +2416,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>5.6000000000000001E-2</v>
+        <v>0.12</v>
       </c>
       <c r="C15">
-        <v>9.8000000000000004E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D15">
-        <v>0.123</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.188</v>
+        <v>6.3E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.32</v>
+      </c>
+      <c r="F15">
+        <v>0.29899999999999999</v>
       </c>
       <c r="G15">
-        <v>0.153</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="H15">
-        <v>0.27800000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="I15">
-        <v>0.27800000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="J15">
-        <v>0.2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -2462,31 +2448,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>5.6000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="C16">
-        <v>5.6000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0.25</v>
+        <v>1E-3</v>
+      </c>
+      <c r="E16">
+        <v>0.28000000000000003</v>
       </c>
       <c r="F16">
-        <v>0.27200000000000002</v>
+        <v>0.27</v>
       </c>
       <c r="G16">
-        <v>8.2000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H16">
-        <v>0.44400000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="I16">
-        <v>0.48899999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="J16">
-        <v>0.16500000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -2494,31 +2480,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>5.6000000000000001E-2</v>
+        <v>0.12</v>
       </c>
       <c r="C17">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="D17">
         <v>6.3E-2</v>
       </c>
-      <c r="D17">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0.16700000000000001</v>
+      <c r="E17">
+        <v>0.54</v>
       </c>
       <c r="F17">
-        <v>0.28999999999999998</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="G17">
-        <v>0.20699999999999999</v>
+        <v>3.1E-2</v>
       </c>
       <c r="H17">
-        <v>0.27800000000000002</v>
+        <v>0.96</v>
       </c>
       <c r="I17">
-        <v>0.51800000000000002</v>
+        <v>0.96</v>
       </c>
       <c r="J17">
-        <v>0.40500000000000003</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -2526,31 +2512,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>5.6000000000000001E-2</v>
+        <v>0.4</v>
       </c>
       <c r="C18">
-        <v>0.125</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="D18">
-        <v>0.126</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0.16700000000000001</v>
+        <v>0.191</v>
+      </c>
+      <c r="E18">
+        <v>0.68</v>
       </c>
       <c r="F18">
-        <v>0.28499999999999998</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="G18">
-        <v>0.22700000000000001</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="H18">
-        <v>0.27800000000000002</v>
+        <v>0.96</v>
       </c>
       <c r="I18">
-        <v>0.44600000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="J18">
-        <v>0.371</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -2558,31 +2544,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.33300000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="C19">
-        <v>0.36899999999999999</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="D19">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0.63900000000000001</v>
+        <v>0.152</v>
+      </c>
+      <c r="E19">
+        <v>0.68</v>
       </c>
       <c r="F19">
-        <v>0.65700000000000003</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="G19">
-        <v>6.5000000000000002E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="H19">
-        <v>0.94399999999999995</v>
+        <v>0.96</v>
       </c>
       <c r="I19">
-        <v>0.94399999999999995</v>
+        <v>0.96</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -2590,31 +2576,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>5.6000000000000001E-2</v>
+        <v>0.48</v>
       </c>
       <c r="C20">
-        <v>0.17</v>
+        <v>0.317</v>
       </c>
       <c r="D20">
-        <v>0.17</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0.222</v>
+        <v>0.21</v>
+      </c>
+      <c r="E20">
+        <v>0.68</v>
       </c>
       <c r="F20">
-        <v>0.32300000000000001</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="G20">
-        <v>0.192</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="H20">
-        <v>0.38900000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="I20">
-        <v>0.47599999999999998</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="J20">
-        <v>0.246</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2626,8 +2612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FF827E-9907-4C4D-8A39-0652C77CD407}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2669,31 +2655,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>4.8000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C2">
-        <v>7.4999999999999997E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D2">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.20200000000000001</v>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
+      </c>
+      <c r="F2">
+        <v>0.21299999999999999</v>
       </c>
       <c r="G2">
-        <v>0.14000000000000001</v>
+        <v>0.161</v>
       </c>
       <c r="H2">
-        <v>0.28599999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="I2">
-        <v>0.32900000000000001</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="J2">
-        <v>0.23200000000000001</v>
+        <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2701,31 +2687,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>4.8000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C3">
-        <v>8.3000000000000004E-2</v>
+        <v>0.08</v>
       </c>
       <c r="D3">
-        <v>0.12</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.38100000000000001</v>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
       </c>
       <c r="F3">
-        <v>0.27500000000000002</v>
+        <v>0.247</v>
       </c>
       <c r="G3">
-        <v>0.20899999999999999</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="H3">
-        <v>0.71399999999999997</v>
+        <v>0.15</v>
       </c>
       <c r="I3">
-        <v>0.46800000000000003</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="J3">
-        <v>0.36099999999999999</v>
+        <v>0.33600000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -2733,31 +2719,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>4.8000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C4">
-        <v>6.3E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D4">
-        <v>0.09</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.35699999999999998</v>
+        <v>1E-3</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>0.36299999999999999</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="G4">
-        <v>8.8999999999999996E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="H4">
-        <v>0.66700000000000004</v>
+        <v>0.95</v>
       </c>
       <c r="I4">
-        <v>0.66300000000000003</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="J4">
-        <v>0.128</v>
+        <v>0.13700000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -2765,31 +2751,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>4.8000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C5">
-        <v>7.0000000000000007E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D5">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.19600000000000001</v>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <v>0.21299999999999999</v>
       </c>
       <c r="G5">
-        <v>0.13400000000000001</v>
+        <v>0.161</v>
       </c>
       <c r="H5">
-        <v>0.28599999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="I5">
-        <v>0.32200000000000001</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="J5">
-        <v>0.22500000000000001</v>
+        <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -2797,31 +2783,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>4.8000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C6">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="D6">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.16700000000000001</v>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.1</v>
       </c>
       <c r="F6">
-        <v>0.21299999999999999</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="G6">
-        <v>0.14000000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="H6">
-        <v>0.28599999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="I6">
-        <v>0.35199999999999998</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="J6">
-        <v>0.23499999999999999</v>
+        <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -2829,25 +2815,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>4.8000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C7">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="D7">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.16700000000000001</v>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.1</v>
       </c>
       <c r="F7">
-        <v>0.21199999999999999</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="G7">
-        <v>0.16800000000000001</v>
+        <v>0.161</v>
       </c>
       <c r="H7">
-        <v>0.28599999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="I7">
         <v>0.34899999999999998</v>
@@ -2861,25 +2847,25 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>4.8000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C8">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="D8">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.16700000000000001</v>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
       </c>
       <c r="F8">
-        <v>0.21199999999999999</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="G8">
-        <v>0.16800000000000001</v>
+        <v>0.161</v>
       </c>
       <c r="H8">
-        <v>0.28599999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="I8">
         <v>0.34899999999999998</v>
@@ -2893,31 +2879,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>4.8000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C9">
-        <v>7.0000000000000007E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D9">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.19600000000000001</v>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <v>0.21199999999999999</v>
       </c>
       <c r="G9">
-        <v>0.13400000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="H9">
-        <v>0.28599999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="I9">
-        <v>0.32200000000000001</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="J9">
-        <v>0.22500000000000001</v>
+        <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -2925,31 +2911,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>4.8000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C10">
-        <v>8.1000000000000003E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D10">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.20699999999999999</v>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.1</v>
+      </c>
+      <c r="F10">
+        <v>0.21199999999999999</v>
       </c>
       <c r="G10">
-        <v>0.14599999999999999</v>
+        <v>0.158</v>
       </c>
       <c r="H10">
-        <v>0.28599999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="I10">
-        <v>0.33300000000000002</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="J10">
-        <v>0.23100000000000001</v>
+        <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -2957,31 +2943,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>4.8000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C11">
-        <v>8.1000000000000003E-2</v>
+        <v>0.08</v>
       </c>
       <c r="D11">
-        <v>0.108</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.38100000000000001</v>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.1</v>
       </c>
       <c r="F11">
-        <v>0.27300000000000002</v>
+        <v>0.247</v>
       </c>
       <c r="G11">
-        <v>0.20300000000000001</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="H11">
-        <v>0.71399999999999997</v>
+        <v>0.15</v>
       </c>
       <c r="I11">
-        <v>0.46500000000000002</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="J11">
-        <v>0.35799999999999998</v>
+        <v>0.33600000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -2989,31 +2975,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>4.8000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C12">
-        <v>7.0000000000000007E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D12">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.19600000000000001</v>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="F12">
+        <v>0.21299999999999999</v>
       </c>
       <c r="G12">
-        <v>0.13400000000000001</v>
+        <v>0.161</v>
       </c>
       <c r="H12">
-        <v>0.28599999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="I12">
-        <v>0.32200000000000001</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="J12">
-        <v>0.22500000000000001</v>
+        <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -3021,31 +3007,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>4.8000000000000001E-2</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
-        <v>0.126</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="D13">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.28599999999999998</v>
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.65</v>
       </c>
       <c r="F13">
-        <v>0.27400000000000002</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="G13">
-        <v>9.4E-2</v>
+        <v>0.2</v>
       </c>
       <c r="H13">
-        <v>0.52400000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="I13">
-        <v>0.42199999999999999</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="J13">
-        <v>0.17299999999999999</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -3053,31 +3039,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.28599999999999998</v>
+        <v>0.85</v>
       </c>
       <c r="C14">
-        <v>0.28999999999999998</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="D14">
+        <v>0.373</v>
+      </c>
+      <c r="E14">
+        <v>0.9</v>
+      </c>
+      <c r="F14">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="G14">
         <v>0.26600000000000001</v>
       </c>
-      <c r="E14" s="5">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="F14">
-        <v>0.435</v>
-      </c>
-      <c r="G14">
-        <v>0.20300000000000001</v>
-      </c>
       <c r="H14">
-        <v>0.57099999999999995</v>
+        <v>0.95</v>
       </c>
       <c r="I14">
-        <v>0.58099999999999996</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="J14">
-        <v>0.17699999999999999</v>
+        <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -3085,31 +3071,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>4.8000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C15">
-        <v>7.1999999999999995E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D15">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.2</v>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.1</v>
+      </c>
+      <c r="F15">
+        <v>0.21199999999999999</v>
       </c>
       <c r="G15">
-        <v>0.13600000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="H15">
-        <v>0.28599999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="I15">
-        <v>0.32900000000000001</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="J15">
-        <v>0.22900000000000001</v>
+        <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -3117,31 +3103,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>4.8000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C16">
-        <v>6.6000000000000003E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D16">
-        <v>0.08</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0.31</v>
+        <v>0.06</v>
+      </c>
+      <c r="E16">
+        <v>0.42499999999999999</v>
       </c>
       <c r="F16">
-        <v>0.32700000000000001</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="G16">
-        <v>7.2999999999999995E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="H16">
-        <v>0.57099999999999995</v>
+        <v>0.8</v>
       </c>
       <c r="I16">
-        <v>0.58699999999999997</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="J16">
-        <v>0.106</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -3149,31 +3135,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>4.8000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C17">
-        <v>4.9000000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D17">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0.5</v>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.1</v>
       </c>
       <c r="F17">
-        <v>0.32500000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="G17">
-        <v>0.21099999999999999</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="H17">
-        <v>0.95199999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="I17">
-        <v>0.60199999999999998</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="J17">
-        <v>0.42099999999999999</v>
+        <v>0.38900000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -3181,31 +3167,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>4.8000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C18">
-        <v>9.9000000000000005E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0.5</v>
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.1</v>
       </c>
       <c r="F18">
-        <v>0.32</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="G18">
-        <v>0.24</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="H18">
-        <v>0.95199999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="I18">
-        <v>0.54100000000000004</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="J18">
-        <v>0.42399999999999999</v>
+        <v>0.38900000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -3213,31 +3199,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.28599999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="C19">
-        <v>0.28499999999999998</v>
+        <v>0.193</v>
       </c>
       <c r="D19">
-        <v>0.106</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0.61899999999999999</v>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.57499999999999996</v>
       </c>
       <c r="F19">
-        <v>0.60399999999999998</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="G19">
-        <v>9.1999999999999998E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="H19">
-        <v>0.95199999999999996</v>
+        <v>0.95</v>
       </c>
       <c r="I19">
-        <v>0.92400000000000004</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="J19">
-        <v>0.124</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -3245,31 +3231,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>4.8000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C20">
-        <v>0.16</v>
+        <v>0.112</v>
       </c>
       <c r="D20">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0.47599999999999998</v>
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.1</v>
       </c>
       <c r="F20">
-        <v>0.31900000000000001</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="G20">
-        <v>0.23200000000000001</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="H20">
-        <v>0.71399999999999997</v>
+        <v>0.15</v>
       </c>
       <c r="I20">
-        <v>0.47799999999999998</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="J20">
-        <v>0.34799999999999998</v>
+        <v>0.33600000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3278,456 +3264,1890 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A2E699-79B8-43A2-8DCE-2A434568021C}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0.04</v>
+      </c>
+      <c r="C2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.2</v>
+      </c>
+      <c r="F2">
+        <v>0.215</v>
+      </c>
+      <c r="G2">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.36</v>
+      </c>
+      <c r="I2">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="J2">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.04</v>
+      </c>
+      <c r="C3">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.05</v>
+      </c>
+      <c r="E3">
+        <v>0.22</v>
+      </c>
+      <c r="F3">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G3">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.4</v>
+      </c>
+      <c r="I3">
+        <v>0.496</v>
+      </c>
+      <c r="J3">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.04</v>
+      </c>
+      <c r="C4">
+        <v>0.187</v>
+      </c>
+      <c r="D4">
+        <v>0.22</v>
+      </c>
+      <c r="E4">
+        <v>0.4</v>
+      </c>
+      <c r="F4">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="G4">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.76</v>
+      </c>
+      <c r="I4">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.04</v>
+      </c>
+      <c r="C5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.26</v>
+      </c>
+      <c r="F5">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G5">
+        <v>0.13</v>
+      </c>
+      <c r="H5">
+        <v>0.48</v>
+      </c>
+      <c r="I5">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="J5">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.04</v>
+      </c>
+      <c r="C6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.05</v>
+      </c>
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+      <c r="F6">
+        <v>0.245</v>
+      </c>
+      <c r="G6">
+        <v>0.123</v>
+      </c>
+      <c r="H6">
+        <v>0.36</v>
+      </c>
+      <c r="I6">
+        <v>0.442</v>
+      </c>
+      <c r="J6">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.04</v>
+      </c>
+      <c r="C7">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.156</v>
+      </c>
+      <c r="E7">
+        <v>0.2</v>
+      </c>
+      <c r="F7">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.36</v>
+      </c>
+      <c r="I7">
+        <v>0.433</v>
+      </c>
+      <c r="J7">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0.04</v>
+      </c>
+      <c r="C8">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.156</v>
+      </c>
+      <c r="E8">
+        <v>0.2</v>
+      </c>
+      <c r="F8">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.36</v>
+      </c>
+      <c r="I8">
+        <v>0.433</v>
+      </c>
+      <c r="J8">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0.04</v>
+      </c>
+      <c r="C9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.26</v>
+      </c>
+      <c r="F9">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G9">
+        <v>0.129</v>
+      </c>
+      <c r="H9">
+        <v>0.48</v>
+      </c>
+      <c r="I9">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="J9">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.04</v>
+      </c>
+      <c r="C10">
+        <v>0.189</v>
+      </c>
+      <c r="D10">
+        <v>0.22</v>
+      </c>
+      <c r="E10">
+        <v>0.26</v>
+      </c>
+      <c r="F10">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.48</v>
+      </c>
+      <c r="I10">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="J10">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.04</v>
+      </c>
+      <c r="C11">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.05</v>
+      </c>
+      <c r="E11">
+        <v>0.22</v>
+      </c>
+      <c r="F11">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.4</v>
+      </c>
+      <c r="I11">
+        <v>0.496</v>
+      </c>
+      <c r="J11">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.04</v>
+      </c>
+      <c r="C12">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.26</v>
+      </c>
+      <c r="F12">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G12">
+        <v>0.13</v>
+      </c>
+      <c r="H12">
+        <v>0.48</v>
+      </c>
+      <c r="I12">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="J12">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>0.04</v>
+      </c>
+      <c r="C13">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D13">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.2</v>
+      </c>
+      <c r="F13">
+        <v>0.215</v>
+      </c>
+      <c r="G13">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.36</v>
+      </c>
+      <c r="I13">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="J13">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>0.04</v>
+      </c>
+      <c r="C14">
+        <v>0.189</v>
+      </c>
+      <c r="D14">
+        <v>0.22</v>
+      </c>
+      <c r="E14">
+        <v>0.26</v>
+      </c>
+      <c r="F14">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="G14">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.48</v>
+      </c>
+      <c r="I14">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="J14">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>0.04</v>
+      </c>
+      <c r="C15">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D15">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.26</v>
+      </c>
+      <c r="F15">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G15">
+        <v>0.13</v>
+      </c>
+      <c r="H15">
+        <v>0.48</v>
+      </c>
+      <c r="I15">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="J15">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.04</v>
+      </c>
+      <c r="C16">
+        <v>0.187</v>
+      </c>
+      <c r="D16">
+        <v>0.22</v>
+      </c>
+      <c r="E16">
+        <v>0.4</v>
+      </c>
+      <c r="F16">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.76</v>
+      </c>
+      <c r="I16">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="J16">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0.04</v>
+      </c>
+      <c r="C17">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="G17">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.96</v>
+      </c>
+      <c r="I17">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="J17">
+        <v>0.33100000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.04</v>
+      </c>
+      <c r="C18">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.05</v>
+      </c>
+      <c r="E18">
+        <v>0.22</v>
+      </c>
+      <c r="F18">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G18">
+        <v>0.156</v>
+      </c>
+      <c r="H18">
+        <v>0.4</v>
+      </c>
+      <c r="I18">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="J18">
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.24</v>
+      </c>
+      <c r="C19">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="D19">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="E19">
+        <v>0.6</v>
+      </c>
+      <c r="F19">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="G19">
+        <v>0.155</v>
+      </c>
+      <c r="H19">
+        <v>0.96</v>
+      </c>
+      <c r="I19">
+        <v>0.81</v>
+      </c>
+      <c r="J19">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.04</v>
+      </c>
+      <c r="C20">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D20">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.22</v>
+      </c>
+      <c r="F20">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="G20">
+        <v>0.156</v>
+      </c>
+      <c r="H20">
+        <v>0.4</v>
+      </c>
+      <c r="I20">
+        <v>0.496</v>
+      </c>
+      <c r="J20">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FF97CA-6D2F-4DED-B6FC-E2EFB654E05A}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.151</v>
+      </c>
+      <c r="G2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="J2">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.04</v>
+      </c>
+      <c r="D3">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="J3">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D4">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.308</v>
+      </c>
+      <c r="G4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="I4">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="J4">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C5">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.151</v>
+      </c>
+      <c r="G5">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="J5">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.04</v>
+      </c>
+      <c r="D6">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.154</v>
+      </c>
+      <c r="G6">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="J6">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D7">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.154</v>
+      </c>
+      <c r="H7">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C8">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D8">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.154</v>
+      </c>
+      <c r="H8">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="J8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C9">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.151</v>
+      </c>
+      <c r="G9">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C10">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.151</v>
+      </c>
+      <c r="G10">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="J10">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.04</v>
+      </c>
+      <c r="D11">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G11">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="J11">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C12">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.151</v>
+      </c>
+      <c r="G12">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="J12">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C13">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="F13">
+        <v>0.311</v>
+      </c>
+      <c r="G13">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="I13">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="J13">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C14">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D14">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.154</v>
+      </c>
+      <c r="G14">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="J14">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C15">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D15">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.151</v>
+      </c>
+      <c r="G15">
+        <v>6.3E-2</v>
+      </c>
+      <c r="H15">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="J15">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C16">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="F16">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G16">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H16">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="I16">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="J16">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C17">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F17">
+        <v>0.189</v>
+      </c>
+      <c r="G17">
+        <v>0.129</v>
+      </c>
+      <c r="H17">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="J17">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.04</v>
+      </c>
+      <c r="D18">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.19</v>
+      </c>
+      <c r="G18">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.34</v>
+      </c>
+      <c r="J18">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="C19">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="D19">
+        <v>0.1</v>
+      </c>
+      <c r="E19">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="F19">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="G19">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="I19">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="J19">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C20">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D20">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F20">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="G20">
+        <v>0.108</v>
+      </c>
+      <c r="H20">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="J20">
+        <v>0.154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEA3FA1-9878-4087-8D56-20FC72644890}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.90625" customWidth="1"/>
-    <col min="2" max="2" width="11" style="18" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="18"/>
+    <col min="2" max="2" width="8.54296875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="6"/>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="D3" s="15">
-        <v>0.188</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="F3" s="25">
-        <f>AVERAGE(B3:E3)</f>
-        <v>0.25424999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="17">
+        <v>0.318</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.215</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0.151</v>
+      </c>
+      <c r="H3" s="7">
+        <f>AVERAGE(B3:G3)</f>
+        <v>0.25233333333333335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="18">
-        <v>0.373</v>
-      </c>
-      <c r="C4" s="19">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="D4" s="18">
+      <c r="B4" s="17">
+        <v>0.379</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.247</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H4" s="18">
+        <f t="shared" ref="H4:H21" si="0">AVERAGE(B4:G4)</f>
+        <v>0.33466666666666661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0.439</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.308</v>
+      </c>
+      <c r="H5" s="18">
+        <f t="shared" si="0"/>
+        <v>0.39850000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0.318</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.151</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.25750000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0.379</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="F7" s="17">
         <v>0.245</v>
       </c>
-      <c r="E4" s="18">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="F4" s="17">
-        <f t="shared" ref="F4:F21" si="0">AVERAGE(B4:E4)</f>
-        <v>0.32799999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="18">
-        <v>0.373</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="E5" s="18">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="G7" s="17">
+        <v>0.154</v>
+      </c>
+      <c r="H7" s="18">
         <f t="shared" si="0"/>
-        <v>0.36749999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="14">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="D6" s="14">
-        <v>0.185</v>
-      </c>
-      <c r="E6" s="14">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="F6" s="24">
+        <v>0.30149999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="17">
+        <v>0.318</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="H8" s="10">
         <f t="shared" si="0"/>
-        <v>0.252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="16">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="C7" s="16">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0.217</v>
-      </c>
-      <c r="E7" s="18">
+        <v>0.26516666666666672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="17">
+        <v>0.318</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="E9" s="17">
         <v>0.21299999999999999</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F9" s="17">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="H9" s="10">
         <f t="shared" si="0"/>
+        <v>0.26516666666666672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="17">
+        <v>0.318</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0.151</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25716666666666671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="17">
+        <v>0.318</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0.151</v>
+      </c>
+      <c r="H11" s="18">
+        <f t="shared" si="0"/>
+        <v>0.26883333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="17">
+        <v>0.379</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.247</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H12" s="18">
+        <f t="shared" si="0"/>
+        <v>0.33466666666666661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="17">
+        <v>0.318</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0.151</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.25750000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="17">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0.215</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0.311</v>
+      </c>
+      <c r="H14" s="18">
+        <f t="shared" si="0"/>
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="17">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0.154</v>
+      </c>
+      <c r="H15" s="18">
+        <f t="shared" si="0"/>
+        <v>0.46399999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="17">
+        <v>0.318</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0.151</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25733333333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0.439</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.27</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="H17" s="18">
+        <f t="shared" si="0"/>
+        <v>0.37433333333333335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="17">
+        <v>0.379</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0.189</v>
+      </c>
+      <c r="H18" s="18">
+        <f t="shared" si="0"/>
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="17">
+        <v>0.379</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0.19</v>
+      </c>
+      <c r="H19" s="18">
+        <f t="shared" si="0"/>
+        <v>0.34849999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="17">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="0"/>
+        <v>0.59133333333333338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="17">
+        <v>0.379</v>
+      </c>
+      <c r="C21" s="17">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="F21" s="17">
         <v>0.28499999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="15">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="C8" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0.188</v>
-      </c>
-      <c r="E8" s="18">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="F8" s="27">
+      <c r="G21" s="17">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="H21" s="18">
         <f t="shared" si="0"/>
-        <v>0.26049999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="15">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="C9" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0.188</v>
-      </c>
-      <c r="E9" s="18">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="F9" s="27">
-        <f t="shared" si="0"/>
-        <v>0.26049999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="14">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="C10" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="D10" s="14">
-        <v>0.185</v>
-      </c>
-      <c r="E10" s="14">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="F10" s="24">
-        <f t="shared" si="0"/>
-        <v>0.252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="14">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="C11" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0.185</v>
-      </c>
-      <c r="E11" s="19">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="F11" s="26">
-        <f t="shared" si="0"/>
-        <v>0.25475000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="18">
-        <v>0.373</v>
-      </c>
-      <c r="C12" s="19">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="D12" s="18">
-        <v>0.245</v>
-      </c>
-      <c r="E12" s="18">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="F12" s="17">
-        <f t="shared" si="0"/>
-        <v>0.32750000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="14">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0.185</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="F13" s="24">
-        <f t="shared" si="0"/>
-        <v>0.252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="18">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="D14" s="19">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="E14" s="18">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="F14" s="17">
-        <f t="shared" si="0"/>
-        <v>0.37575000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="18">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="C15" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="18">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E15" s="18">
-        <v>0.435</v>
-      </c>
-      <c r="F15" s="17">
-        <f t="shared" si="0"/>
-        <v>0.50900000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="14">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0.35</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0.188</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="F16" s="25">
-        <f t="shared" si="0"/>
-        <v>0.25374999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="19">
-        <v>0.35</v>
-      </c>
-      <c r="C17" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="D17" s="18">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="E17" s="18">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="F17" s="17">
-        <f t="shared" si="0"/>
-        <v>0.33724999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="18">
-        <v>0.373</v>
-      </c>
-      <c r="C18" s="19">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="D18" s="18">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E18" s="18">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="F18" s="17">
-        <f t="shared" si="0"/>
-        <v>0.35175000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="18">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="C19" s="19">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="D19" s="18">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="E19" s="18">
-        <v>0.32</v>
-      </c>
-      <c r="F19" s="17">
-        <f t="shared" si="0"/>
-        <v>0.35399999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="18">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="C20" s="18">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="D20" s="18">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="E20" s="18">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="F20" s="17">
-        <f t="shared" si="0"/>
-        <v>0.59550000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="20">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="C21" s="21">
-        <v>0.45</v>
-      </c>
-      <c r="D21" s="21">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="E21" s="22">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="F21" s="23">
-        <f t="shared" si="0"/>
-        <v>0.39124999999999999</v>
+        <v>0.35449999999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
